--- a/CreateBaseDeck/ExcelUserData/Temporary_ToHelpBuildDecks/TMP_ExistingCapacity_UniqueTechNameLv1.xlsx
+++ b/CreateBaseDeck/ExcelUserData/Temporary_ToHelpBuildDecks/TMP_ExistingCapacity_UniqueTechNameLv1.xlsx
@@ -1231,7 +1231,7 @@
         <v>1912</v>
       </c>
       <c r="F17" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
         <v>27</v>
@@ -1471,7 +1471,7 @@
         <v>1968</v>
       </c>
       <c r="F22" t="n">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="G22" t="n">
         <v>668</v>
@@ -1567,7 +1567,7 @@
         <v>1960</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
         <v>25</v>
@@ -1663,7 +1663,7 @@
         <v>1930</v>
       </c>
       <c r="F26" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G26" t="n">
         <v>112</v>
@@ -1759,7 +1759,7 @@
         <v>1970</v>
       </c>
       <c r="F28" t="n">
-        <v>79.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="G28" t="n">
         <v>62</v>
@@ -1855,7 +1855,7 @@
         <v>1957</v>
       </c>
       <c r="F30" t="n">
-        <v>163.2</v>
+        <v>167</v>
       </c>
       <c r="G30" t="n">
         <v>162</v>
@@ -1951,7 +1951,7 @@
         <v>1919</v>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
         <v>30</v>
@@ -1999,7 +1999,7 @@
         <v>2011</v>
       </c>
       <c r="F33" t="n">
-        <v>370.6</v>
+        <v>412</v>
       </c>
       <c r="G33" t="n">
         <v>364</v>
@@ -2287,7 +2287,7 @@
         <v>2012</v>
       </c>
       <c r="F39" t="n">
-        <v>370.6</v>
+        <v>412</v>
       </c>
       <c r="G39" t="n">
         <v>354</v>
@@ -2383,7 +2383,7 @@
         <v>1915</v>
       </c>
       <c r="F41" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="G41" t="n">
         <v>27</v>
@@ -2527,7 +2527,7 @@
         <v>1966</v>
       </c>
       <c r="F44" t="n">
-        <v>348.5</v>
+        <v>380</v>
       </c>
       <c r="G44" t="n">
         <v>370</v>
@@ -2575,7 +2575,7 @@
         <v>1965</v>
       </c>
       <c r="F45" t="n">
-        <v>348.5</v>
+        <v>380</v>
       </c>
       <c r="G45" t="n">
         <v>370</v>
@@ -2623,7 +2623,7 @@
         <v>1923</v>
       </c>
       <c r="F46" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G46" t="n">
         <v>65</v>
@@ -2671,7 +2671,7 @@
         <v>1928</v>
       </c>
       <c r="F47" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
         <v>40</v>
@@ -2719,7 +2719,7 @@
         <v>1925</v>
       </c>
       <c r="F48" t="n">
-        <v>25.5</v>
+        <v>33.4</v>
       </c>
       <c r="G48" t="n">
         <v>33.4</v>
@@ -2815,7 +2815,7 @@
         <v>1920</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="G50" t="n">
         <v>6.4</v>
@@ -2863,7 +2863,7 @@
         <v>1954</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G51" t="n">
         <v>9.5</v>
@@ -3103,7 +3103,7 @@
         <v>1942</v>
       </c>
       <c r="F56" t="n">
-        <v>43.2</v>
+        <v>45</v>
       </c>
       <c r="G56" t="n">
         <v>45</v>
@@ -3151,7 +3151,7 @@
         <v>1955</v>
       </c>
       <c r="F57" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="G57" t="n">
         <v>11.5</v>
@@ -3295,7 +3295,7 @@
         <v>1963</v>
       </c>
       <c r="F60" t="n">
-        <v>177.6</v>
+        <v>220</v>
       </c>
       <c r="G60" t="n">
         <v>220</v>
@@ -3439,7 +3439,7 @@
         <v>1954</v>
       </c>
       <c r="F63" t="n">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="G63" t="n">
         <v>13.9</v>
@@ -3487,7 +3487,7 @@
         <v>1954</v>
       </c>
       <c r="F64" t="n">
-        <v>81</v>
+        <v>101.4</v>
       </c>
       <c r="G64" t="n">
         <v>101.4</v>
@@ -3535,7 +3535,7 @@
         <v>1945</v>
       </c>
       <c r="F65" t="n">
-        <v>173.7</v>
+        <v>202.8</v>
       </c>
       <c r="G65" t="n">
         <v>202.8</v>
@@ -3583,7 +3583,7 @@
         <v>1940</v>
       </c>
       <c r="F66" t="n">
-        <v>70.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="G66" t="n">
         <v>87.7</v>
@@ -3823,7 +3823,7 @@
         <v>1987</v>
       </c>
       <c r="F71" t="n">
-        <v>950.9</v>
+        <v>1009</v>
       </c>
       <c r="G71" t="n">
         <v>964</v>
@@ -4541,7 +4541,7 @@
         <v>2011</v>
       </c>
       <c r="F86" t="n">
-        <v>382.4</v>
+        <v>430</v>
       </c>
       <c r="G86" t="n">
         <v>356</v>
@@ -5357,7 +5357,7 @@
         <v>1978</v>
       </c>
       <c r="F103" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G103" t="n">
         <v>74</v>
@@ -5741,7 +5741,7 @@
         <v>1966</v>
       </c>
       <c r="F111" t="n">
-        <v>28.3</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
         <v>30</v>
@@ -5933,7 +5933,7 @@
         <v>1990</v>
       </c>
       <c r="F115" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G115" t="n">
         <v>111</v>
@@ -6125,7 +6125,7 @@
         <v>1991</v>
       </c>
       <c r="F119" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="G119" t="n">
         <v>28.7</v>
@@ -6413,7 +6413,7 @@
         <v>1976</v>
       </c>
       <c r="F125" t="n">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="G125" t="n">
         <v>44.5</v>
@@ -7085,7 +7085,7 @@
         <v>1917</v>
       </c>
       <c r="F139" t="n">
-        <v>78.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="G139" t="n">
         <v>90</v>
@@ -7229,7 +7229,7 @@
         <v>1927</v>
       </c>
       <c r="F142" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G142" t="n">
         <v>39</v>
@@ -7373,7 +7373,7 @@
         <v>2013</v>
       </c>
       <c r="F145" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="G145" t="n">
         <v>28</v>
@@ -7421,7 +7421,7 @@
         <v>2012</v>
       </c>
       <c r="F146" t="n">
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="G146" t="n">
         <v>84</v>
@@ -7469,7 +7469,7 @@
         <v>1949</v>
       </c>
       <c r="F147" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="n">
         <v>31</v>
@@ -8141,7 +8141,7 @@
         <v>2007</v>
       </c>
       <c r="F161" t="n">
-        <v>343.8</v>
+        <v>366.6</v>
       </c>
       <c r="G161" t="n">
         <v>339</v>
@@ -8381,7 +8381,7 @@
         <v>2013</v>
       </c>
       <c r="F166" t="n">
-        <v>57.3</v>
+        <v>61.1</v>
       </c>
       <c r="G166" t="n">
         <v>56.5</v>
@@ -8429,7 +8429,7 @@
         <v>2007</v>
       </c>
       <c r="F167" t="n">
-        <v>286.5</v>
+        <v>305.5</v>
       </c>
       <c r="G167" t="n">
         <v>282.5</v>
@@ -9725,7 +9725,7 @@
         <v>2012</v>
       </c>
       <c r="F194" t="n">
-        <v>736</v>
+        <v>767.7</v>
       </c>
       <c r="G194" t="n">
         <v>737.9</v>
@@ -11117,7 +11117,7 @@
         <v>2012</v>
       </c>
       <c r="F223" t="n">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="G223" t="n">
         <v>510</v>
@@ -14141,7 +14141,7 @@
         <v>2013</v>
       </c>
       <c r="F286" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G286" t="n">
         <v>341</v>
@@ -25085,7 +25085,7 @@
         <v>2011</v>
       </c>
       <c r="F514" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="G514" t="n">
         <v>4.9</v>
@@ -27917,7 +27917,7 @@
         <v>2016</v>
       </c>
       <c r="F573" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="G573" t="n">
         <v>6.5</v>
@@ -37277,7 +37277,7 @@
         <v>2018</v>
       </c>
       <c r="F768" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G768" t="n">
         <v>5</v>
@@ -39005,7 +39005,7 @@
         <v>2018</v>
       </c>
       <c r="F804" t="n">
-        <v>80</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G804" t="n">
         <v>99.90000000000001</v>
